--- a/Kevin/CS470.skel/hw4/plot_impulse_function_triangle.xlsx
+++ b/Kevin/CS470.skel/hw4/plot_impulse_function_triangle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anthony/Desktop/classes/image processing/Image-Processing-Projects/Anthony/CS470.skel/hw4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kille\Desktop\Git\Image-Processing-Projects\Kevin\CS470.skel\hw4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06A4A0C-E391-E546-9F39-AA30E8CB36D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B66DFF9-DB04-4E15-AD5A-24EEE14B082E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" xr2:uid="{0A18D70B-B3AD-7C41-96E6-8D312FACE4E4}"/>
+    <workbookView xWindow="4335" yWindow="1958" windowWidth="18000" windowHeight="9847" xr2:uid="{0A18D70B-B3AD-7C41-96E6-8D312FACE4E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -109,6 +109,34 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Impulse Triangle</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -141,8 +169,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -170,12 +198,12 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$258</c:f>
+              <c:f>Sheet1!$A$2:$A$257</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="257"/>
+                <c:ptCount val="256"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -946,13 +974,13 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$258</c:f>
+              <c:f>Sheet1!$B$2:$B$257</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="257"/>
+                <c:ptCount val="256"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -1723,7 +1751,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1739,14 +1767,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="65044527"/>
         <c:axId val="65046207"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="65044527"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="255"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1789,15 +1818,13 @@
         </c:txPr>
         <c:crossAx val="65046207"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="65046207"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1848,7 +1875,7 @@
         </c:txPr>
         <c:crossAx val="65044527"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2455,16 +2482,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>423862</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>11112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>806450</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>414337</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2792,15 +2819,15 @@
   <dimension ref="A1:B257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="1" max="2" width="10.8125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2808,7 +2835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2816,7 +2843,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2824,7 +2851,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2832,7 +2859,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2840,7 +2867,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2848,7 +2875,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2856,7 +2883,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2864,7 +2891,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2872,7 +2899,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2880,7 +2907,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2888,7 +2915,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2896,7 +2923,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2904,7 +2931,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2912,7 +2939,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2920,7 +2947,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2928,7 +2955,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2936,7 +2963,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2944,7 +2971,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2952,7 +2979,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2960,7 +2987,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2968,7 +2995,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2976,7 +3003,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2984,7 +3011,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2992,7 +3019,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3000,7 +3027,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3008,7 +3035,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3016,7 +3043,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3024,7 +3051,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3032,7 +3059,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3040,7 +3067,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3048,7 +3075,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3056,7 +3083,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3064,7 +3091,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3072,7 +3099,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3080,7 +3107,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3088,7 +3115,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3096,7 +3123,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3104,7 +3131,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3112,7 +3139,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3120,7 +3147,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3128,7 +3155,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3136,7 +3163,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3144,7 +3171,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3152,7 +3179,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3160,7 +3187,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3168,7 +3195,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3176,7 +3203,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3184,7 +3211,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3192,7 +3219,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3200,7 +3227,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3208,7 +3235,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3216,7 +3243,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3224,7 +3251,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3232,7 +3259,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3240,7 +3267,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3248,7 +3275,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3256,7 +3283,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3264,7 +3291,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3272,7 +3299,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3280,7 +3307,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3288,7 +3315,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3296,7 +3323,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3304,7 +3331,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3312,7 +3339,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3320,7 +3347,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3328,7 +3355,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3336,7 +3363,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3344,7 +3371,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3352,7 +3379,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3360,7 +3387,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3368,7 +3395,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3376,7 +3403,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3384,7 +3411,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3392,7 +3419,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3400,7 +3427,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3408,7 +3435,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3416,7 +3443,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3424,7 +3451,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3432,7 +3459,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3440,7 +3467,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3448,7 +3475,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3456,7 +3483,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3464,7 +3491,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3472,7 +3499,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3480,7 +3507,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3488,7 +3515,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3496,7 +3523,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3504,7 +3531,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3512,7 +3539,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3520,7 +3547,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3528,7 +3555,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3536,7 +3563,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3544,7 +3571,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3552,7 +3579,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3560,7 +3587,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3568,7 +3595,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3576,7 +3603,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3584,7 +3611,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -3592,7 +3619,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -3600,7 +3627,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -3608,7 +3635,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -3616,7 +3643,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -3624,7 +3651,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -3632,7 +3659,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -3640,7 +3667,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -3648,7 +3675,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -3656,7 +3683,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -3664,7 +3691,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -3672,7 +3699,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -3680,7 +3707,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -3688,7 +3715,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -3696,7 +3723,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -3704,7 +3731,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -3712,7 +3739,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3720,7 +3747,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -3728,7 +3755,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -3736,7 +3763,7 @@
         <v>137.5</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -3744,7 +3771,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -3752,7 +3779,7 @@
         <v>162.5</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -3760,7 +3787,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -3768,7 +3795,7 @@
         <v>187.5</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -3776,7 +3803,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -3784,7 +3811,7 @@
         <v>187.5</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -3792,7 +3819,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -3800,7 +3827,7 @@
         <v>162.5</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -3808,7 +3835,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -3816,7 +3843,7 @@
         <v>137.5</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -3824,7 +3851,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -3832,7 +3859,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -3840,7 +3867,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -3848,7 +3875,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -3856,7 +3883,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -3864,7 +3891,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -3872,7 +3899,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -3880,7 +3907,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -3888,7 +3915,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -3896,7 +3923,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -3904,7 +3931,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -3912,7 +3939,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -3920,7 +3947,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -3928,7 +3955,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -3936,7 +3963,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -3944,7 +3971,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -3952,7 +3979,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -3960,7 +3987,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -3968,7 +3995,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -3976,7 +4003,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -3984,7 +4011,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -3992,7 +4019,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -4000,7 +4027,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -4008,7 +4035,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -4016,7 +4043,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -4024,7 +4051,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -4032,7 +4059,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -4040,7 +4067,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -4048,7 +4075,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -4056,7 +4083,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -4064,7 +4091,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -4072,7 +4099,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -4080,7 +4107,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -4088,7 +4115,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -4096,7 +4123,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -4104,7 +4131,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -4112,7 +4139,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -4120,7 +4147,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -4128,7 +4155,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -4136,7 +4163,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -4144,7 +4171,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -4152,7 +4179,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -4160,7 +4187,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -4168,7 +4195,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -4176,7 +4203,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -4184,7 +4211,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -4192,7 +4219,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -4200,7 +4227,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -4208,7 +4235,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -4216,7 +4243,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -4224,7 +4251,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -4232,7 +4259,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -4240,7 +4267,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -4248,7 +4275,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -4256,7 +4283,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -4264,7 +4291,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -4272,7 +4299,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -4280,7 +4307,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -4288,7 +4315,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -4296,7 +4323,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -4304,7 +4331,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -4312,7 +4339,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -4320,7 +4347,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -4328,7 +4355,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -4336,7 +4363,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -4344,7 +4371,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -4352,7 +4379,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -4360,7 +4387,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -4368,7 +4395,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -4376,7 +4403,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -4384,7 +4411,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -4392,7 +4419,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -4400,7 +4427,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -4408,7 +4435,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -4416,7 +4443,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -4424,7 +4451,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -4432,7 +4459,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -4440,7 +4467,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -4448,7 +4475,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -4456,7 +4483,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -4464,7 +4491,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -4472,7 +4499,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -4480,7 +4507,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -4488,7 +4515,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -4496,7 +4523,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -4504,7 +4531,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -4512,7 +4539,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -4520,7 +4547,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -4528,7 +4555,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -4536,7 +4563,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -4544,7 +4571,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -4552,7 +4579,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -4560,7 +4587,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -4568,7 +4595,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -4576,7 +4603,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -4584,7 +4611,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -4592,7 +4619,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -4600,7 +4627,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -4608,7 +4635,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -4616,7 +4643,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -4624,7 +4651,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -4632,7 +4659,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -4640,7 +4667,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -4648,7 +4675,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -4656,7 +4683,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -4664,7 +4691,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -4672,7 +4699,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -4680,7 +4707,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -4688,7 +4715,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -4696,7 +4723,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -4704,7 +4731,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -4712,7 +4739,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -4720,7 +4747,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -4728,7 +4755,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -4736,7 +4763,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -4744,7 +4771,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -4752,7 +4779,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -4760,7 +4787,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -4768,7 +4795,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -4776,7 +4803,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -4784,7 +4811,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -4792,7 +4819,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -4800,7 +4827,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -4808,7 +4835,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -4816,7 +4843,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -4824,7 +4851,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -4832,7 +4859,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -4840,7 +4867,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -4848,7 +4875,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A257" s="1">
         <v>255</v>
       </c>
